--- a/data/data_collection_from_Dan.xlsx
+++ b/data/data_collection_from_Dan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A07BE59-4121-4669-9849-2232A1E5BAC5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A3B999-56FF-4DE2-976B-C91ABC88ABC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="5820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="no_tumor_glucose" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="798">
   <si>
     <t>Compound</t>
   </si>
@@ -2400,6 +2400,27 @@
   </si>
   <si>
     <t>m+6</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Errorbar</t>
+  </si>
+  <si>
+    <t>Liver</t>
+  </si>
+  <si>
+    <t>Skeleton Muscle</t>
+  </si>
+  <si>
+    <t>PYR</t>
+  </si>
+  <si>
+    <t>MAL</t>
   </si>
 </sst>
 </file>
@@ -2452,6 +2473,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA1C6DF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2723,7 +2749,2134 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11266874651733139"/>
+          <c:y val="4.8434279181147802E-2"/>
+          <c:w val="0.84687147750876679"/>
+          <c:h val="0.82262814260768558"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A1C6DF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Figures!$O$56:$O$59</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>6.1208930391433755E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.4760876630039648E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.6870240380017421E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Figures!$O$56:$O$59</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>6.1208930391433755E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.4760876630039648E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.6870240380017421E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figures!$M$56:$M$59</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>m+0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m+1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>m+2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>m+3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figures!$N$56:$N$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.87658399527497344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7264258490620035E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10615174623440654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AB5-4855-92E4-6B673944B2EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="84"/>
+        <c:overlap val="-32"/>
+        <c:axId val="815525752"/>
+        <c:axId val="815526392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="815525752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815526392"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="815526392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815525752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11266874651733139"/>
+          <c:y val="4.8434279181147802E-2"/>
+          <c:w val="0.84687147750876679"/>
+          <c:h val="0.82262814260768558"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A1C6DF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Figures!$O$62:$O$65</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.1635359651866327E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.414643229963473E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.4858325447121441E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Figures!$O$62:$O$65</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.1635359651866327E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.414643229963473E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.4858325447121441E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figures!$M$62:$M$65</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>m+0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m+1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>m+2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>m+3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figures!$N$62:$N$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.9463876862511611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.380087637585876E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7232226111253134E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AB5-4855-92E4-6B673944B2EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="84"/>
+        <c:overlap val="-32"/>
+        <c:axId val="815525752"/>
+        <c:axId val="815526392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="815525752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815526392"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="815526392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815525752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11266874651733139"/>
+          <c:y val="4.8434279181147802E-2"/>
+          <c:w val="0.84687147750876679"/>
+          <c:h val="0.82262814260768558"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A1C6DF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Figures!$O$68:$O$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.8277314173761474E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.9716982746573786E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.391385234616588E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.8032429488659474E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Figures!$O$68:$O$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.8277314173761474E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.9716982746573786E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.391385234616588E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.8032429488659474E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figures!$M$68:$M$71</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>m+0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m+1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>m+2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>m+3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figures!$N$68:$N$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.74467469221500382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8340961790304203E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3810791202043141E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14317355479264876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AB5-4855-92E4-6B673944B2EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="84"/>
+        <c:overlap val="-32"/>
+        <c:axId val="815525752"/>
+        <c:axId val="815526392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="815525752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815526392"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="815526392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815525752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11266874651733139"/>
+          <c:y val="4.8434279181147802E-2"/>
+          <c:w val="0.84687147750876679"/>
+          <c:h val="0.82262814260768558"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A1C6DF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Figures!$O$74:$O$77</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.1859963832075723E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.5943571079223466E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.4871164355145821E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.6068669711929522E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Figures!$O$74:$O$77</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.1859963832075723E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.5943571079223466E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.4871164355145821E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.6068669711929522E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figures!$M$74:$M$77</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>m+0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m+1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>m+2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>m+3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figures!$N$74:$N$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.75301477350860013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.263261718020811E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9909090792303012E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18444351851888879</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AB5-4855-92E4-6B673944B2EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="84"/>
+        <c:overlap val="-32"/>
+        <c:axId val="815525752"/>
+        <c:axId val="815526392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="815525752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815526392"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="815526392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815525752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11266874651733139"/>
+          <c:y val="4.8434279181147802E-2"/>
+          <c:w val="0.84687147750876679"/>
+          <c:h val="0.82262814260768558"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A1C6DF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Figures!$O$80:$O$84</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.790139546053989E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.4690285277944478E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1591950895475907E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.7581552871445364E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.1452128967852751E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Figures!$O$80:$O$84</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.790139546053989E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.4690285277944478E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1591950895475907E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.7581552871445364E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.1452128967852751E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figures!$M$80:$M$84</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>m+0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m+1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>m+2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>m+3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>m+4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figures!$N$80:$N$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.63123206767229956</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18684995708406732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11431439830325646</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6636859972615021E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0966716967761679E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AB5-4855-92E4-6B673944B2EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="84"/>
+        <c:overlap val="-32"/>
+        <c:axId val="815525752"/>
+        <c:axId val="815526392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="815525752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815526392"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="815526392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815525752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11266874651733139"/>
+          <c:y val="4.8434279181147802E-2"/>
+          <c:w val="0.84687147750876679"/>
+          <c:h val="0.82262814260768558"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A1C6DF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Figures!$O$87:$O$91</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>6.0621842778465669E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3520709233347464E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6604341132381602E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.3984821033686116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.6787186016713582E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Figures!$O$87:$O$91</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>6.0621842778465669E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3520709233347464E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6604341132381602E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.3984821033686116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.6787186016713582E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figures!$M$87:$M$91</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>m+0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m+1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>m+2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>m+3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>m+4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figures!$N$87:$N$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.6795517652257792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17046266554021494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10379393328516315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9153664231291942E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0379717175507381E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AB5-4855-92E4-6B673944B2EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="84"/>
+        <c:overlap val="-32"/>
+        <c:axId val="815525752"/>
+        <c:axId val="815526392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="815525752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815526392"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="815526392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815525752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3266,6 +5419,3024 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3301,6 +8472,234 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>360589</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>146316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>278946</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>131751</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089AE263-0A23-43D1-8974-5D98C8D2501A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>535442</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>453799</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>5208</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3994CE-9F60-4540-AA71-2A31B369D548}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>360589</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>6164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>278946</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>175295</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B864A59E-12ED-4268-90BF-1D2524E2639E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>528638</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>2764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>446995</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>171895</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94BBC2C9-15C7-41ED-BAEE-20E1B8E932B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>360589</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>144276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>283708</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>132432</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5167F64-822F-4163-BAEE-0A6A54AC5526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>140876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>446995</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>124270</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2C5271-3202-4CBC-820F-31BD666C2AD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3574,8 +8973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9446E6-6AE0-455C-8258-D62E2CD929A8}">
   <dimension ref="A1:CY802"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
+      <selection activeCell="F602" sqref="F602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27544,16 +32943,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C668901-AE5E-4D8C-8B8D-9E839C9032F1}">
-  <dimension ref="C2:L38"/>
+  <dimension ref="A2:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="F55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55:O91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.45">
@@ -27938,7 +33339,7 @@
         <v>8.7223799880288194E-2</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C33">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -27976,7 +33377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C34">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -28014,7 +33415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C35">
         <f t="shared" si="2"/>
         <v>3.7058429427044209E-2</v>
@@ -28052,7 +33453,7 @@
         <v>1.7064801136158471E-2</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C36">
         <f t="shared" si="2"/>
         <v>3.6370974881349119E-2</v>
@@ -28090,7 +33491,7 @@
         <v>2.4046012304180381E-2</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C37">
         <f t="shared" si="2"/>
         <v>0.28246639194956247</v>
@@ -28128,7 +33529,7 @@
         <v>0.26009293463556743</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C38">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -28164,6 +33565,1787 @@
       <c r="L38">
         <f>SUM(L31:L37)</f>
         <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>770</v>
+      </c>
+      <c r="G40" t="s">
+        <v>771</v>
+      </c>
+      <c r="H40" t="s">
+        <v>772</v>
+      </c>
+      <c r="I40" t="s">
+        <v>773</v>
+      </c>
+      <c r="J40" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>710</v>
+      </c>
+      <c r="C41">
+        <v>457878531.83399969</v>
+      </c>
+      <c r="D41">
+        <v>332710420.46100032</v>
+      </c>
+      <c r="E41">
+        <v>676772752.12499917</v>
+      </c>
+      <c r="F41">
+        <v>449376711.89099908</v>
+      </c>
+      <c r="G41">
+        <v>288110476.43700033</v>
+      </c>
+      <c r="H41">
+        <v>360404394.68099988</v>
+      </c>
+      <c r="I41">
+        <v>298941163.78800052</v>
+      </c>
+      <c r="J41">
+        <v>155736028.77300006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>711</v>
+      </c>
+      <c r="C42">
+        <v>136313197.11599991</v>
+      </c>
+      <c r="D42">
+        <v>101246838.92400013</v>
+      </c>
+      <c r="E42">
+        <v>201537946.61399975</v>
+      </c>
+      <c r="F42">
+        <v>128144309.47799972</v>
+      </c>
+      <c r="G42">
+        <v>88185684.936000094</v>
+      </c>
+      <c r="H42">
+        <v>64890296.522999957</v>
+      </c>
+      <c r="I42">
+        <v>77424302.766000137</v>
+      </c>
+      <c r="J42">
+        <v>42371509.89600002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>712</v>
+      </c>
+      <c r="C43">
+        <v>91054836.233999968</v>
+      </c>
+      <c r="D43">
+        <v>67125921.318000063</v>
+      </c>
+      <c r="E43">
+        <v>122269532.78999984</v>
+      </c>
+      <c r="F43">
+        <v>65785480.187999845</v>
+      </c>
+      <c r="G43">
+        <v>63036132.234000079</v>
+      </c>
+      <c r="H43">
+        <v>35502576.656999983</v>
+      </c>
+      <c r="I43">
+        <v>39361828.872000068</v>
+      </c>
+      <c r="J43">
+        <v>27338877.369000014</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>713</v>
+      </c>
+      <c r="C44">
+        <v>54684869.447999977</v>
+      </c>
+      <c r="D44">
+        <v>38790573.054000035</v>
+      </c>
+      <c r="E44">
+        <v>45019441.229999952</v>
+      </c>
+      <c r="F44">
+        <v>27134151.830999948</v>
+      </c>
+      <c r="G44">
+        <v>21027595.437000025</v>
+      </c>
+      <c r="H44">
+        <v>12365409.644999994</v>
+      </c>
+      <c r="I44">
+        <v>12633708.82500002</v>
+      </c>
+      <c r="J44">
+        <v>13517453.892000008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>714</v>
+      </c>
+      <c r="C45">
+        <v>10727068.344000001</v>
+      </c>
+      <c r="D45">
+        <v>8096536.9500000095</v>
+      </c>
+      <c r="E45">
+        <v>8358190.5179999853</v>
+      </c>
+      <c r="F45">
+        <v>4638376.4549999908</v>
+      </c>
+      <c r="G45">
+        <v>3036139.2750000055</v>
+      </c>
+      <c r="H45">
+        <v>2275347.489000001</v>
+      </c>
+      <c r="I45">
+        <v>1908609.2310000027</v>
+      </c>
+      <c r="J45">
+        <v>2995044.3990000025</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C46">
+        <f>SUM(C41:C45)</f>
+        <v>750658502.97599947</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:J46" si="4">SUM(D41:D45)</f>
+        <v>547970290.70700061</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="4"/>
+        <v>1053957863.2769986</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>675079029.84299862</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>463396028.31900054</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="4"/>
+        <v>475438024.99499983</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
+        <v>430269613.48200077</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>241958914.32900012</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C48">
+        <f>C41/C$46</f>
+        <v>0.60996915377462835</v>
+      </c>
+      <c r="D48">
+        <f>D41/D$46</f>
+        <v>0.60716872082924722</v>
+      </c>
+      <c r="E48">
+        <f>E41/E$46</f>
+        <v>0.64212505613910997</v>
+      </c>
+      <c r="F48">
+        <f>F41/F$46</f>
+        <v>0.66566533994621258</v>
+      </c>
+      <c r="G48">
+        <f>G41/G$46</f>
+        <v>0.62173704311221645</v>
+      </c>
+      <c r="H48">
+        <f>H41/H$46</f>
+        <v>0.75804705499689518</v>
+      </c>
+      <c r="I48">
+        <f>I41/I$46</f>
+        <v>0.69477637839397632</v>
+      </c>
+      <c r="J48">
+        <f>J41/J$46</f>
+        <v>0.64364658440002864</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C49">
+        <f>C42/C$46</f>
+        <v>0.18159149143796244</v>
+      </c>
+      <c r="D49">
+        <f>D42/D$46</f>
+        <v>0.18476702230219402</v>
+      </c>
+      <c r="E49">
+        <f>E42/E$46</f>
+        <v>0.19122011765002794</v>
+      </c>
+      <c r="F49">
+        <f>F42/F$46</f>
+        <v>0.18982119694608482</v>
+      </c>
+      <c r="G49">
+        <f>G42/G$46</f>
+        <v>0.19030306594534149</v>
+      </c>
+      <c r="H49">
+        <f>H42/H$46</f>
+        <v>0.13648528958886366</v>
+      </c>
+      <c r="I49">
+        <f>I42/I$46</f>
+        <v>0.17994369190851303</v>
+      </c>
+      <c r="J49">
+        <f>J42/J$46</f>
+        <v>0.17511861471814166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C50">
+        <f>C43/C$46</f>
+        <v>0.12129994647767446</v>
+      </c>
+      <c r="D50">
+        <f>D43/D$46</f>
+        <v>0.12249919832586736</v>
+      </c>
+      <c r="E50">
+        <f>E43/E$46</f>
+        <v>0.11600988715984868</v>
+      </c>
+      <c r="F50">
+        <f>F43/F$46</f>
+        <v>9.7448561249635329E-2</v>
+      </c>
+      <c r="G50">
+        <f>G43/G$46</f>
+        <v>0.13603079953591268</v>
+      </c>
+      <c r="H50">
+        <f>H43/H$46</f>
+        <v>7.4673405976253923E-2</v>
+      </c>
+      <c r="I50">
+        <f>I43/I$46</f>
+        <v>9.1481777096598688E-2</v>
+      </c>
+      <c r="J50">
+        <f>J43/J$46</f>
+        <v>0.1129897505318873</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C51">
+        <f>C44/C$46</f>
+        <v>7.2849197379635092E-2</v>
+      </c>
+      <c r="D51">
+        <f>D44/D$46</f>
+        <v>7.0789555039474455E-2</v>
+      </c>
+      <c r="E51">
+        <f>E44/E$46</f>
+        <v>4.2714649986123829E-2</v>
+      </c>
+      <c r="F51">
+        <f>F44/F$46</f>
+        <v>4.019403748522668E-2</v>
+      </c>
+      <c r="G51">
+        <f>G44/G$46</f>
+        <v>4.5377159388437158E-2</v>
+      </c>
+      <c r="H51">
+        <f>H44/H$46</f>
+        <v>2.6008457453797561E-2</v>
+      </c>
+      <c r="I51">
+        <f>I44/I$46</f>
+        <v>2.936230779292184E-2</v>
+      </c>
+      <c r="J51">
+        <f>J44/J$46</f>
+        <v>5.5866732290011219E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C52">
+        <f>C45/C$46</f>
+        <v>1.4290210930099826E-2</v>
+      </c>
+      <c r="D52">
+        <f>D45/D$46</f>
+        <v>1.4775503503216788E-2</v>
+      </c>
+      <c r="E52">
+        <f>E45/E$46</f>
+        <v>7.9302890648895955E-3</v>
+      </c>
+      <c r="F52">
+        <f>F45/F$46</f>
+        <v>6.8708643728405041E-3</v>
+      </c>
+      <c r="G52">
+        <f>G45/G$46</f>
+        <v>6.55193201809217E-3</v>
+      </c>
+      <c r="H52">
+        <f>H45/H$46</f>
+        <v>4.785791984189592E-3</v>
+      </c>
+      <c r="I52">
+        <f>I45/I$46</f>
+        <v>4.435844807990013E-3</v>
+      </c>
+      <c r="J52">
+        <f>J45/J$46</f>
+        <v>1.2378318059931177E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C53">
+        <f>C46/C$46</f>
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <f>D46/D$46</f>
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <f>E46/E$46</f>
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <f>F46/F$46</f>
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f>G46/G$46</f>
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <f>H46/H$46</f>
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <f>I46/I$46</f>
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <f>J46/J$46</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>740</v>
+      </c>
+      <c r="C55">
+        <v>2884564.6469999929</v>
+      </c>
+      <c r="D55">
+        <v>2541864.7979999948</v>
+      </c>
+      <c r="E55">
+        <v>2416154.3340000003</v>
+      </c>
+      <c r="F55">
+        <v>1418032.4310000017</v>
+      </c>
+      <c r="G55">
+        <v>4307437.6650000075</v>
+      </c>
+      <c r="H55">
+        <v>2267006.3429999994</v>
+      </c>
+      <c r="I55">
+        <v>3314367.572999998</v>
+      </c>
+      <c r="J55">
+        <v>2554981.8540000026</v>
+      </c>
+      <c r="K55" t="s">
+        <v>791</v>
+      </c>
+      <c r="L55" t="s">
+        <v>794</v>
+      </c>
+      <c r="N55" t="s">
+        <v>792</v>
+      </c>
+      <c r="O55" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>741</v>
+      </c>
+      <c r="C56">
+        <v>88260.281999999293</v>
+      </c>
+      <c r="D56">
+        <v>102972.2099999994</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>16247.85000000011</v>
+      </c>
+      <c r="G56">
+        <v>54765.258000000365</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>38339.681999999797</v>
+      </c>
+      <c r="M56" t="s">
+        <v>784</v>
+      </c>
+      <c r="N56">
+        <f>AVERAGE(C61:F61)</f>
+        <v>0.87658399527497344</v>
+      </c>
+      <c r="O56">
+        <f>_xlfn.STDEV.S(C61:F61)</f>
+        <v>6.1208930391433755E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>742</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>785</v>
+      </c>
+      <c r="N57">
+        <f t="shared" ref="N57:N59" si="5">AVERAGE(C62:F62)</f>
+        <v>1.7264258490620035E-2</v>
+      </c>
+      <c r="O57">
+        <f t="shared" ref="O57:O59" si="6">_xlfn.STDEV.S(C62:F62)</f>
+        <v>1.4760876630039648E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>743</v>
+      </c>
+      <c r="C58">
+        <v>418700.87699999684</v>
+      </c>
+      <c r="D58">
+        <v>520367.36400000064</v>
+      </c>
+      <c r="E58">
+        <v>164379.78600000011</v>
+      </c>
+      <c r="F58">
+        <v>113030.43900000027</v>
+      </c>
+      <c r="G58">
+        <v>305282.99400000111</v>
+      </c>
+      <c r="H58">
+        <v>32845.452000000223</v>
+      </c>
+      <c r="I58">
+        <v>144594.08399999974</v>
+      </c>
+      <c r="J58">
+        <v>187536.35100000084</v>
+      </c>
+      <c r="M58" t="s">
+        <v>786</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C59">
+        <f>SUM(C55:C58)</f>
+        <v>3391525.8059999887</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ref="D59:J59" si="7">SUM(D55:D58)</f>
+        <v>3165204.3719999949</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="7"/>
+        <v>2580534.1200000006</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="7"/>
+        <v>1547310.7200000021</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="7"/>
+        <v>4667485.9170000087</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="7"/>
+        <v>2299851.7949999995</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="7"/>
+        <v>3458961.6569999978</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="7"/>
+        <v>2780857.8870000029</v>
+      </c>
+      <c r="M59" t="s">
+        <v>787</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="5"/>
+        <v>0.10615174623440654</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="6"/>
+        <v>4.6870240380017421E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C61">
+        <f>C55/C$59</f>
+        <v>0.85052121434455108</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ref="D61:J61" si="8">D55/D$59</f>
+        <v>0.80306498388723913</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="8"/>
+        <v>0.93630009201350906</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="8"/>
+        <v>0.91644969085459438</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="8"/>
+        <v>0.92286034529025007</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="8"/>
+        <v>0.98571844843593492</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="8"/>
+        <v>0.95819725734531325</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="8"/>
+        <v>0.91877469393314593</v>
+      </c>
+      <c r="L61" t="s">
+        <v>795</v>
+      </c>
+      <c r="N61" t="s">
+        <v>792</v>
+      </c>
+      <c r="O61" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C62">
+        <f t="shared" ref="C62:J64" si="9">C56/C$59</f>
+        <v>2.6023768371113962E-2</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="9"/>
+        <v>3.2532562797812151E-2</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="9"/>
+        <v>1.0500702793554023E-2</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="9"/>
+        <v>1.1733352595780368E-2</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="9"/>
+        <v>1.3786997954563134E-2</v>
+      </c>
+      <c r="M62" t="s">
+        <v>784</v>
+      </c>
+      <c r="N62">
+        <f>AVERAGE(G61:J61)</f>
+        <v>0.9463876862511611</v>
+      </c>
+      <c r="O62">
+        <f>_xlfn.STDEV.S(G61:J61)</f>
+        <v>3.1635359651866327E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>785</v>
+      </c>
+      <c r="N63">
+        <f t="shared" ref="N63:N65" si="10">AVERAGE(G62:J62)</f>
+        <v>6.380087637585876E-3</v>
+      </c>
+      <c r="O63">
+        <f t="shared" ref="O63:O65" si="11">_xlfn.STDEV.S(G62:J62)</f>
+        <v>7.414643229963473E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C64">
+        <f t="shared" si="9"/>
+        <v>0.12345501728433501</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="9"/>
+        <v>0.16440245331494868</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="9"/>
+        <v>6.369990798649082E-2</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="9"/>
+        <v>7.3049606351851634E-2</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="9"/>
+        <v>6.5406302113969625E-2</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="9"/>
+        <v>1.4281551564065123E-2</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="9"/>
+        <v>4.1802742654686739E-2</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="9"/>
+        <v>6.7438308112291054E-2</v>
+      </c>
+      <c r="M64" t="s">
+        <v>786</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C65">
+        <f>C59/C$59</f>
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ref="D65:J65" si="12">D59/D$59</f>
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M65" t="s">
+        <v>787</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="10"/>
+        <v>4.7232226111253134E-2</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="11"/>
+        <v>2.4858325447121441E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>7405488.0419999976</v>
+      </c>
+      <c r="D67">
+        <v>9847247.3219999969</v>
+      </c>
+      <c r="E67">
+        <v>12579883.847999996</v>
+      </c>
+      <c r="F67">
+        <v>10718744.162999991</v>
+      </c>
+      <c r="G67">
+        <v>174550129.62900013</v>
+      </c>
+      <c r="H67">
+        <v>529809537.66000003</v>
+      </c>
+      <c r="I67">
+        <v>305474630.1839999</v>
+      </c>
+      <c r="J67">
+        <v>130467168.48899998</v>
+      </c>
+      <c r="K67" t="s">
+        <v>796</v>
+      </c>
+      <c r="L67" t="s">
+        <v>794</v>
+      </c>
+      <c r="N67" t="s">
+        <v>792</v>
+      </c>
+      <c r="O67" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>744</v>
+      </c>
+      <c r="C68">
+        <v>783145.28699999989</v>
+      </c>
+      <c r="D68">
+        <v>1099227.4620000003</v>
+      </c>
+      <c r="E68">
+        <v>1036146.0629999995</v>
+      </c>
+      <c r="F68">
+        <v>768644.51399999985</v>
+      </c>
+      <c r="G68">
+        <v>10561233.012000004</v>
+      </c>
+      <c r="H68">
+        <v>28736654.991000004</v>
+      </c>
+      <c r="I68">
+        <v>15333319.646999998</v>
+      </c>
+      <c r="J68">
+        <v>8177181.375</v>
+      </c>
+      <c r="M68" t="s">
+        <v>784</v>
+      </c>
+      <c r="N68">
+        <f>AVERAGE(C73:F73)</f>
+        <v>0.74467469221500382</v>
+      </c>
+      <c r="O68">
+        <f>_xlfn.STDEV.S(C73:F73)</f>
+        <v>5.8277314173761474E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>745</v>
+      </c>
+      <c r="C69">
+        <v>585262.67700000003</v>
+      </c>
+      <c r="D69">
+        <v>789201.28199999989</v>
+      </c>
+      <c r="E69">
+        <v>578146.21499999962</v>
+      </c>
+      <c r="F69">
+        <v>378640.85099999985</v>
+      </c>
+      <c r="G69">
+        <v>5650001.9670000011</v>
+      </c>
+      <c r="H69">
+        <v>12683462.055000002</v>
+      </c>
+      <c r="I69">
+        <v>5319317.6489999993</v>
+      </c>
+      <c r="J69">
+        <v>4382490.9030000009</v>
+      </c>
+      <c r="M69" t="s">
+        <v>785</v>
+      </c>
+      <c r="N69">
+        <f t="shared" ref="N69:N71" si="13">AVERAGE(C74:F74)</f>
+        <v>6.8340961790304203E-2</v>
+      </c>
+      <c r="O69">
+        <f t="shared" ref="O69:O71" si="14">_xlfn.STDEV.S(C74:F74)</f>
+        <v>8.9716982746573786E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>746</v>
+      </c>
+      <c r="C70">
+        <v>1502678.2739999997</v>
+      </c>
+      <c r="D70">
+        <v>2834213.0189999999</v>
+      </c>
+      <c r="E70">
+        <v>2051872.2659999991</v>
+      </c>
+      <c r="F70">
+        <v>1401671.8830000001</v>
+      </c>
+      <c r="G70">
+        <v>52969074.474000014</v>
+      </c>
+      <c r="H70">
+        <v>123720641.52900004</v>
+      </c>
+      <c r="I70">
+        <v>45206687.015999995</v>
+      </c>
+      <c r="J70">
+        <v>40500488.675999999</v>
+      </c>
+      <c r="M70" t="s">
+        <v>786</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="13"/>
+        <v>4.3810791202043141E-2</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="14"/>
+        <v>1.391385234616588E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C71">
+        <f>SUM(C67:C70)</f>
+        <v>10276574.279999997</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ref="D71:J71" si="15">SUM(D67:D70)</f>
+        <v>14569889.084999997</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="15"/>
+        <v>16246048.391999993</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="15"/>
+        <v>13267701.410999991</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="15"/>
+        <v>243730439.08200014</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="15"/>
+        <v>694950296.23500001</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="15"/>
+        <v>371333954.49599987</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="15"/>
+        <v>183527329.44299996</v>
+      </c>
+      <c r="M71" t="s">
+        <v>787</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="13"/>
+        <v>0.14317355479264876</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="14"/>
+        <v>3.8032429488659474E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C73">
+        <f>C67/C$71</f>
+        <v>0.72061835395987617</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ref="D73:J73" si="16">D67/D$71</f>
+        <v>0.67586288849226328</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="16"/>
+        <v>0.77433499793061555</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="16"/>
+        <v>0.80788252847726061</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="16"/>
+        <v>0.71616056774211478</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="16"/>
+        <v>0.7623704033660027</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="16"/>
+        <v>0.82264125455107162</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="16"/>
+        <v>0.71088686837521142</v>
+      </c>
+      <c r="L73" t="s">
+        <v>795</v>
+      </c>
+      <c r="N73" t="s">
+        <v>792</v>
+      </c>
+      <c r="O73" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C74">
+        <f t="shared" ref="C74:J77" si="17">C68/C$71</f>
+        <v>7.6206843415138545E-2</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="17"/>
+        <v>7.5445149622427654E-2</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="17"/>
+        <v>6.3778344000884959E-2</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="17"/>
+        <v>5.7933510122765632E-2</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="17"/>
+        <v>4.3331612792306198E-2</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="17"/>
+        <v>4.1350662265611293E-2</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="17"/>
+        <v>4.129253320723509E-2</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="17"/>
+        <v>4.4555660455679845E-2</v>
+      </c>
+      <c r="M74" t="s">
+        <v>784</v>
+      </c>
+      <c r="N74">
+        <f>AVERAGE(G73:J73)</f>
+        <v>0.75301477350860013</v>
+      </c>
+      <c r="O74">
+        <f>_xlfn.STDEV.S(G73:J73)</f>
+        <v>5.1859963832075723E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C75">
+        <f t="shared" si="17"/>
+        <v>5.6951145493982669E-2</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="17"/>
+        <v>5.416659505064448E-2</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="17"/>
+        <v>3.558688248674028E-2</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="17"/>
+        <v>2.8538541776805149E-2</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="17"/>
+        <v>2.3181355551159234E-2</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="17"/>
+        <v>1.825089092517063E-2</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="17"/>
+        <v>1.4324888916284926E-2</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="17"/>
+        <v>2.3879227776597262E-2</v>
+      </c>
+      <c r="M75" t="s">
+        <v>785</v>
+      </c>
+      <c r="N75">
+        <f t="shared" ref="N75:N77" si="18">AVERAGE(G74:J74)</f>
+        <v>4.263261718020811E-2</v>
+      </c>
+      <c r="O75">
+        <f t="shared" ref="O75:O77" si="19">_xlfn.STDEV.S(G74:J74)</f>
+        <v>1.5943571079223466E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C76">
+        <f t="shared" si="17"/>
+        <v>0.14622365713100263</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="17"/>
+        <v>0.19452536683466456</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="17"/>
+        <v>0.1262997755817592</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="17"/>
+        <v>0.1056454196231686</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="17"/>
+        <v>0.21732646391441987</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="17"/>
+        <v>0.17802804344321546</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="17"/>
+        <v>0.12174132332540835</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="17"/>
+        <v>0.22067824339251157</v>
+      </c>
+      <c r="M76" t="s">
+        <v>786</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="18"/>
+        <v>1.9909090792303012E-2</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="19"/>
+        <v>4.4871164355145821E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C77">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="M77" t="s">
+        <v>787</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="18"/>
+        <v>0.18444351851888879</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="19"/>
+        <v>4.6068669711929522E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>710</v>
+      </c>
+      <c r="C79">
+        <v>457878531.83399969</v>
+      </c>
+      <c r="D79">
+        <v>332710420.46100032</v>
+      </c>
+      <c r="E79">
+        <v>676772752.12499917</v>
+      </c>
+      <c r="F79">
+        <v>449376711.89099908</v>
+      </c>
+      <c r="G79">
+        <v>288110476.43700033</v>
+      </c>
+      <c r="H79">
+        <v>360404394.68099988</v>
+      </c>
+      <c r="I79">
+        <v>298941163.78800052</v>
+      </c>
+      <c r="J79">
+        <v>155736028.77300006</v>
+      </c>
+      <c r="K79" t="s">
+        <v>797</v>
+      </c>
+      <c r="L79" t="s">
+        <v>794</v>
+      </c>
+      <c r="N79" t="s">
+        <v>792</v>
+      </c>
+      <c r="O79" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>711</v>
+      </c>
+      <c r="C80">
+        <v>136313197.11599991</v>
+      </c>
+      <c r="D80">
+        <v>101246838.92400013</v>
+      </c>
+      <c r="E80">
+        <v>201537946.61399975</v>
+      </c>
+      <c r="F80">
+        <v>128144309.47799972</v>
+      </c>
+      <c r="G80">
+        <v>88185684.936000094</v>
+      </c>
+      <c r="H80">
+        <v>64890296.522999957</v>
+      </c>
+      <c r="I80">
+        <v>77424302.766000137</v>
+      </c>
+      <c r="J80">
+        <v>42371509.89600002</v>
+      </c>
+      <c r="M80" t="s">
+        <v>784</v>
+      </c>
+      <c r="N80">
+        <f>AVERAGE(C86:F86)</f>
+        <v>0.63123206767229956</v>
+      </c>
+      <c r="O80">
+        <f>_xlfn.STDEV.S(C86:F86)</f>
+        <v>2.790139546053989E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>712</v>
+      </c>
+      <c r="C81">
+        <v>91054836.233999968</v>
+      </c>
+      <c r="D81">
+        <v>67125921.318000063</v>
+      </c>
+      <c r="E81">
+        <v>122269532.78999984</v>
+      </c>
+      <c r="F81">
+        <v>65785480.187999845</v>
+      </c>
+      <c r="G81">
+        <v>63036132.234000079</v>
+      </c>
+      <c r="H81">
+        <v>35502576.656999983</v>
+      </c>
+      <c r="I81">
+        <v>39361828.872000068</v>
+      </c>
+      <c r="J81">
+        <v>27338877.369000014</v>
+      </c>
+      <c r="M81" t="s">
+        <v>785</v>
+      </c>
+      <c r="N81">
+        <f t="shared" ref="N81:N84" si="20">AVERAGE(C87:F87)</f>
+        <v>0.18684995708406732</v>
+      </c>
+      <c r="O81">
+        <f t="shared" ref="O81:O84" si="21">_xlfn.STDEV.S(C87:F87)</f>
+        <v>4.4690285277944478E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>713</v>
+      </c>
+      <c r="C82">
+        <v>54684869.447999977</v>
+      </c>
+      <c r="D82">
+        <v>38790573.054000035</v>
+      </c>
+      <c r="E82">
+        <v>45019441.229999952</v>
+      </c>
+      <c r="F82">
+        <v>27134151.830999948</v>
+      </c>
+      <c r="G82">
+        <v>21027595.437000025</v>
+      </c>
+      <c r="H82">
+        <v>12365409.644999994</v>
+      </c>
+      <c r="I82">
+        <v>12633708.82500002</v>
+      </c>
+      <c r="J82">
+        <v>13517453.892000008</v>
+      </c>
+      <c r="M82" t="s">
+        <v>786</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="20"/>
+        <v>0.11431439830325646</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="21"/>
+        <v>1.1591950895475907E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>714</v>
+      </c>
+      <c r="C83">
+        <v>10727068.344000001</v>
+      </c>
+      <c r="D83">
+        <v>8096536.9500000095</v>
+      </c>
+      <c r="E83">
+        <v>8358190.5179999853</v>
+      </c>
+      <c r="F83">
+        <v>4638376.4549999908</v>
+      </c>
+      <c r="G83">
+        <v>3036139.2750000055</v>
+      </c>
+      <c r="H83">
+        <v>2275347.489000001</v>
+      </c>
+      <c r="I83">
+        <v>1908609.2310000027</v>
+      </c>
+      <c r="J83">
+        <v>2995044.3990000025</v>
+      </c>
+      <c r="M83" t="s">
+        <v>787</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="20"/>
+        <v>5.6636859972615021E-2</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="21"/>
+        <v>1.7581552871445364E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C84">
+        <f>SUM(C79:C83)</f>
+        <v>750658502.97599947</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ref="D84:J84" si="22">SUM(D79:D83)</f>
+        <v>547970290.70700061</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="22"/>
+        <v>1053957863.2769986</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="22"/>
+        <v>675079029.84299862</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="22"/>
+        <v>463396028.31900054</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="22"/>
+        <v>475438024.99499983</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="22"/>
+        <v>430269613.48200077</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="22"/>
+        <v>241958914.32900012</v>
+      </c>
+      <c r="M84" t="s">
+        <v>788</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="20"/>
+        <v>1.0966716967761679E-2</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="21"/>
+        <v>4.1452128967852751E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C86">
+        <f>C79/C$84</f>
+        <v>0.60996915377462835</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ref="D86:J86" si="23">D79/D$84</f>
+        <v>0.60716872082924722</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="23"/>
+        <v>0.64212505613910997</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="23"/>
+        <v>0.66566533994621258</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="23"/>
+        <v>0.62173704311221645</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="23"/>
+        <v>0.75804705499689518</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="23"/>
+        <v>0.69477637839397632</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="23"/>
+        <v>0.64364658440002864</v>
+      </c>
+      <c r="L86" t="s">
+        <v>795</v>
+      </c>
+      <c r="N86" t="s">
+        <v>792</v>
+      </c>
+      <c r="O86" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C87">
+        <f>C80/C$84</f>
+        <v>0.18159149143796244</v>
+      </c>
+      <c r="D87">
+        <f>D80/D$84</f>
+        <v>0.18476702230219402</v>
+      </c>
+      <c r="E87">
+        <f>E80/E$84</f>
+        <v>0.19122011765002794</v>
+      </c>
+      <c r="F87">
+        <f>F80/F$84</f>
+        <v>0.18982119694608482</v>
+      </c>
+      <c r="G87">
+        <f>G80/G$84</f>
+        <v>0.19030306594534149</v>
+      </c>
+      <c r="H87">
+        <f>H80/H$84</f>
+        <v>0.13648528958886366</v>
+      </c>
+      <c r="I87">
+        <f>I80/I$84</f>
+        <v>0.17994369190851303</v>
+      </c>
+      <c r="J87">
+        <f>J80/J$84</f>
+        <v>0.17511861471814166</v>
+      </c>
+      <c r="M87" t="s">
+        <v>784</v>
+      </c>
+      <c r="N87">
+        <f>AVERAGE(G86:J86)</f>
+        <v>0.6795517652257792</v>
+      </c>
+      <c r="O87">
+        <f>_xlfn.STDEV.S(G86:J86)</f>
+        <v>6.0621842778465669E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C88">
+        <f>C81/C$84</f>
+        <v>0.12129994647767446</v>
+      </c>
+      <c r="D88">
+        <f>D81/D$84</f>
+        <v>0.12249919832586736</v>
+      </c>
+      <c r="E88">
+        <f>E81/E$84</f>
+        <v>0.11600988715984868</v>
+      </c>
+      <c r="F88">
+        <f>F81/F$84</f>
+        <v>9.7448561249635329E-2</v>
+      </c>
+      <c r="G88">
+        <f>G81/G$84</f>
+        <v>0.13603079953591268</v>
+      </c>
+      <c r="H88">
+        <f>H81/H$84</f>
+        <v>7.4673405976253923E-2</v>
+      </c>
+      <c r="I88">
+        <f>I81/I$84</f>
+        <v>9.1481777096598688E-2</v>
+      </c>
+      <c r="J88">
+        <f>J81/J$84</f>
+        <v>0.1129897505318873</v>
+      </c>
+      <c r="M88" t="s">
+        <v>785</v>
+      </c>
+      <c r="N88">
+        <f t="shared" ref="N88:N90" si="24">AVERAGE(G87:J87)</f>
+        <v>0.17046266554021494</v>
+      </c>
+      <c r="O88">
+        <f t="shared" ref="O88:O90" si="25">_xlfn.STDEV.S(G87:J87)</f>
+        <v>2.3520709233347464E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C89">
+        <f>C82/C$84</f>
+        <v>7.2849197379635092E-2</v>
+      </c>
+      <c r="D89">
+        <f>D82/D$84</f>
+        <v>7.0789555039474455E-2</v>
+      </c>
+      <c r="E89">
+        <f>E82/E$84</f>
+        <v>4.2714649986123829E-2</v>
+      </c>
+      <c r="F89">
+        <f>F82/F$84</f>
+        <v>4.019403748522668E-2</v>
+      </c>
+      <c r="G89">
+        <f>G82/G$84</f>
+        <v>4.5377159388437158E-2</v>
+      </c>
+      <c r="H89">
+        <f>H82/H$84</f>
+        <v>2.6008457453797561E-2</v>
+      </c>
+      <c r="I89">
+        <f>I82/I$84</f>
+        <v>2.936230779292184E-2</v>
+      </c>
+      <c r="J89">
+        <f>J82/J$84</f>
+        <v>5.5866732290011219E-2</v>
+      </c>
+      <c r="M89" t="s">
+        <v>786</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="24"/>
+        <v>0.10379393328516315</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="25"/>
+        <v>2.6604341132381602E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C90">
+        <f>C83/C$84</f>
+        <v>1.4290210930099826E-2</v>
+      </c>
+      <c r="D90">
+        <f>D83/D$84</f>
+        <v>1.4775503503216788E-2</v>
+      </c>
+      <c r="E90">
+        <f>E83/E$84</f>
+        <v>7.9302890648895955E-3</v>
+      </c>
+      <c r="F90">
+        <f>F83/F$84</f>
+        <v>6.8708643728405041E-3</v>
+      </c>
+      <c r="G90">
+        <f>G83/G$84</f>
+        <v>6.55193201809217E-3</v>
+      </c>
+      <c r="H90">
+        <f>H83/H$84</f>
+        <v>4.785791984189592E-3</v>
+      </c>
+      <c r="I90">
+        <f>I83/I$84</f>
+        <v>4.435844807990013E-3</v>
+      </c>
+      <c r="J90">
+        <f>J83/J$84</f>
+        <v>1.2378318059931177E-2</v>
+      </c>
+      <c r="M90" t="s">
+        <v>787</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="24"/>
+        <v>3.9153664231291942E-2</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="25"/>
+        <v>1.3984821033686116E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C91">
+        <f>C84/C$84</f>
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <f>D84/D$84</f>
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <f>E84/E$84</f>
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <f>F84/F$84</f>
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <f>G84/G$84</f>
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <f>H84/H$84</f>
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <f>I84/I$84</f>
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <f>J84/J$84</f>
+        <v>1</v>
+      </c>
+      <c r="M91" t="s">
+        <v>788</v>
+      </c>
+      <c r="N91">
+        <f t="shared" ref="N91" si="26">AVERAGE(G90:J90)</f>
+        <v>7.0379717175507381E-3</v>
+      </c>
+      <c r="O91">
+        <f t="shared" ref="O91" si="27">_xlfn.STDEV.S(G90:J90)</f>
+        <v>3.6787186016713582E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_collection_from_Dan.xlsx
+++ b/data/data_collection_from_Dan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A3B999-56FF-4DE2-976B-C91ABC88ABC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9B1575-2623-4454-9991-D6A1D27297B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="no_tumor_glucose" sheetId="4" r:id="rId1"/>
@@ -8973,8 +8973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9446E6-6AE0-455C-8258-D62E2CD929A8}">
   <dimension ref="A1:CY802"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
-      <selection activeCell="F602" sqref="F602"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -32945,8 +32945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C668901-AE5E-4D8C-8B8D-9E839C9032F1}">
   <dimension ref="A2:O91"/>
   <sheetViews>
-    <sheetView topLeftCell="F55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55:O91"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33774,205 +33774,205 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C48">
-        <f>C41/C$46</f>
+        <f t="shared" ref="C48:J53" si="5">C41/C$46</f>
         <v>0.60996915377462835</v>
       </c>
       <c r="D48">
-        <f>D41/D$46</f>
+        <f t="shared" si="5"/>
         <v>0.60716872082924722</v>
       </c>
       <c r="E48">
-        <f>E41/E$46</f>
+        <f t="shared" si="5"/>
         <v>0.64212505613910997</v>
       </c>
       <c r="F48">
-        <f>F41/F$46</f>
+        <f t="shared" si="5"/>
         <v>0.66566533994621258</v>
       </c>
       <c r="G48">
-        <f>G41/G$46</f>
+        <f t="shared" si="5"/>
         <v>0.62173704311221645</v>
       </c>
       <c r="H48">
-        <f>H41/H$46</f>
+        <f t="shared" si="5"/>
         <v>0.75804705499689518</v>
       </c>
       <c r="I48">
-        <f>I41/I$46</f>
+        <f t="shared" si="5"/>
         <v>0.69477637839397632</v>
       </c>
       <c r="J48">
-        <f>J41/J$46</f>
+        <f t="shared" si="5"/>
         <v>0.64364658440002864</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C49">
-        <f>C42/C$46</f>
+        <f t="shared" si="5"/>
         <v>0.18159149143796244</v>
       </c>
       <c r="D49">
-        <f>D42/D$46</f>
+        <f t="shared" si="5"/>
         <v>0.18476702230219402</v>
       </c>
       <c r="E49">
-        <f>E42/E$46</f>
+        <f t="shared" si="5"/>
         <v>0.19122011765002794</v>
       </c>
       <c r="F49">
-        <f>F42/F$46</f>
+        <f t="shared" si="5"/>
         <v>0.18982119694608482</v>
       </c>
       <c r="G49">
-        <f>G42/G$46</f>
+        <f t="shared" si="5"/>
         <v>0.19030306594534149</v>
       </c>
       <c r="H49">
-        <f>H42/H$46</f>
+        <f t="shared" si="5"/>
         <v>0.13648528958886366</v>
       </c>
       <c r="I49">
-        <f>I42/I$46</f>
+        <f t="shared" si="5"/>
         <v>0.17994369190851303</v>
       </c>
       <c r="J49">
-        <f>J42/J$46</f>
+        <f t="shared" si="5"/>
         <v>0.17511861471814166</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C50">
-        <f>C43/C$46</f>
+        <f t="shared" si="5"/>
         <v>0.12129994647767446</v>
       </c>
       <c r="D50">
-        <f>D43/D$46</f>
+        <f t="shared" si="5"/>
         <v>0.12249919832586736</v>
       </c>
       <c r="E50">
-        <f>E43/E$46</f>
+        <f t="shared" si="5"/>
         <v>0.11600988715984868</v>
       </c>
       <c r="F50">
-        <f>F43/F$46</f>
+        <f t="shared" si="5"/>
         <v>9.7448561249635329E-2</v>
       </c>
       <c r="G50">
-        <f>G43/G$46</f>
+        <f t="shared" si="5"/>
         <v>0.13603079953591268</v>
       </c>
       <c r="H50">
-        <f>H43/H$46</f>
+        <f t="shared" si="5"/>
         <v>7.4673405976253923E-2</v>
       </c>
       <c r="I50">
-        <f>I43/I$46</f>
+        <f t="shared" si="5"/>
         <v>9.1481777096598688E-2</v>
       </c>
       <c r="J50">
-        <f>J43/J$46</f>
+        <f t="shared" si="5"/>
         <v>0.1129897505318873</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C51">
-        <f>C44/C$46</f>
+        <f t="shared" si="5"/>
         <v>7.2849197379635092E-2</v>
       </c>
       <c r="D51">
-        <f>D44/D$46</f>
+        <f t="shared" si="5"/>
         <v>7.0789555039474455E-2</v>
       </c>
       <c r="E51">
-        <f>E44/E$46</f>
+        <f t="shared" si="5"/>
         <v>4.2714649986123829E-2</v>
       </c>
       <c r="F51">
-        <f>F44/F$46</f>
+        <f t="shared" si="5"/>
         <v>4.019403748522668E-2</v>
       </c>
       <c r="G51">
-        <f>G44/G$46</f>
+        <f t="shared" si="5"/>
         <v>4.5377159388437158E-2</v>
       </c>
       <c r="H51">
-        <f>H44/H$46</f>
+        <f t="shared" si="5"/>
         <v>2.6008457453797561E-2</v>
       </c>
       <c r="I51">
-        <f>I44/I$46</f>
+        <f t="shared" si="5"/>
         <v>2.936230779292184E-2</v>
       </c>
       <c r="J51">
-        <f>J44/J$46</f>
+        <f t="shared" si="5"/>
         <v>5.5866732290011219E-2</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C52">
-        <f>C45/C$46</f>
+        <f t="shared" si="5"/>
         <v>1.4290210930099826E-2</v>
       </c>
       <c r="D52">
-        <f>D45/D$46</f>
+        <f t="shared" si="5"/>
         <v>1.4775503503216788E-2</v>
       </c>
       <c r="E52">
-        <f>E45/E$46</f>
+        <f t="shared" si="5"/>
         <v>7.9302890648895955E-3</v>
       </c>
       <c r="F52">
-        <f>F45/F$46</f>
+        <f t="shared" si="5"/>
         <v>6.8708643728405041E-3</v>
       </c>
       <c r="G52">
-        <f>G45/G$46</f>
+        <f t="shared" si="5"/>
         <v>6.55193201809217E-3</v>
       </c>
       <c r="H52">
-        <f>H45/H$46</f>
+        <f t="shared" si="5"/>
         <v>4.785791984189592E-3</v>
       </c>
       <c r="I52">
-        <f>I45/I$46</f>
+        <f t="shared" si="5"/>
         <v>4.435844807990013E-3</v>
       </c>
       <c r="J52">
-        <f>J45/J$46</f>
+        <f t="shared" si="5"/>
         <v>1.2378318059931177E-2</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C53">
-        <f>C46/C$46</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D53">
-        <f>D46/D$46</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E53">
-        <f>E46/E$46</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F53">
-        <f>F46/F$46</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G53">
-        <f>G46/G$46</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H53">
-        <f>H46/H$46</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I53">
-        <f>I46/I$46</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J53">
-        <f>J46/J$46</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -34089,11 +34089,11 @@
         <v>785</v>
       </c>
       <c r="N57">
-        <f t="shared" ref="N57:N59" si="5">AVERAGE(C62:F62)</f>
+        <f t="shared" ref="N57:N59" si="6">AVERAGE(C62:F62)</f>
         <v>1.7264258490620035E-2</v>
       </c>
       <c r="O57">
-        <f t="shared" ref="O57:O59" si="6">_xlfn.STDEV.S(C62:F62)</f>
+        <f t="shared" ref="O57:O59" si="7">_xlfn.STDEV.S(C62:F62)</f>
         <v>1.4760876630039648E-2</v>
       </c>
     </row>
@@ -34129,11 +34129,11 @@
         <v>786</v>
       </c>
       <c r="N58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -34143,42 +34143,42 @@
         <v>3391525.8059999887</v>
       </c>
       <c r="D59">
-        <f t="shared" ref="D59:J59" si="7">SUM(D55:D58)</f>
+        <f t="shared" ref="D59:J59" si="8">SUM(D55:D58)</f>
         <v>3165204.3719999949</v>
       </c>
       <c r="E59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2580534.1200000006</v>
       </c>
       <c r="F59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1547310.7200000021</v>
       </c>
       <c r="G59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4667485.9170000087</v>
       </c>
       <c r="H59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2299851.7949999995</v>
       </c>
       <c r="I59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3458961.6569999978</v>
       </c>
       <c r="J59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2780857.8870000029</v>
       </c>
       <c r="M59" t="s">
         <v>787</v>
       </c>
       <c r="N59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.10615174623440654</v>
       </c>
       <c r="O59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.6870240380017421E-2</v>
       </c>
     </row>
@@ -34188,31 +34188,31 @@
         <v>0.85052121434455108</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61:J61" si="8">D55/D$59</f>
+        <f t="shared" ref="D61:J61" si="9">D55/D$59</f>
         <v>0.80306498388723913</v>
       </c>
       <c r="E61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.93630009201350906</v>
       </c>
       <c r="F61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.91644969085459438</v>
       </c>
       <c r="G61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.92286034529025007</v>
       </c>
       <c r="H61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.98571844843593492</v>
       </c>
       <c r="I61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.95819725734531325</v>
       </c>
       <c r="J61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.91877469393314593</v>
       </c>
       <c r="L61" t="s">
@@ -34227,35 +34227,35 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C62">
-        <f t="shared" ref="C62:J64" si="9">C56/C$59</f>
+        <f t="shared" ref="C62:J64" si="10">C56/C$59</f>
         <v>2.6023768371113962E-2</v>
       </c>
       <c r="D62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.2532562797812151E-2</v>
       </c>
       <c r="E62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0500702793554023E-2</v>
       </c>
       <c r="G62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1733352595780368E-2</v>
       </c>
       <c r="H62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.3786997954563134E-2</v>
       </c>
       <c r="M62" t="s">
@@ -34272,91 +34272,91 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M63" t="s">
         <v>785</v>
       </c>
       <c r="N63">
-        <f t="shared" ref="N63:N65" si="10">AVERAGE(G62:J62)</f>
+        <f t="shared" ref="N63:N65" si="11">AVERAGE(G62:J62)</f>
         <v>6.380087637585876E-3</v>
       </c>
       <c r="O63">
-        <f t="shared" ref="O63:O65" si="11">_xlfn.STDEV.S(G62:J62)</f>
+        <f t="shared" ref="O63:O65" si="12">_xlfn.STDEV.S(G62:J62)</f>
         <v>7.414643229963473E-3</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.12345501728433501</v>
       </c>
       <c r="D64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.16440245331494868</v>
       </c>
       <c r="E64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.369990798649082E-2</v>
       </c>
       <c r="F64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.3049606351851634E-2</v>
       </c>
       <c r="G64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.5406302113969625E-2</v>
       </c>
       <c r="H64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.4281551564065123E-2</v>
       </c>
       <c r="I64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.1802742654686739E-2</v>
       </c>
       <c r="J64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.7438308112291054E-2</v>
       </c>
       <c r="M64" t="s">
         <v>786</v>
       </c>
       <c r="N64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -34366,42 +34366,42 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <f t="shared" ref="D65:J65" si="12">D59/D$59</f>
+        <f t="shared" ref="D65:J65" si="13">D59/D$59</f>
         <v>1</v>
       </c>
       <c r="E65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M65" t="s">
         <v>787</v>
       </c>
       <c r="N65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.7232226111253134E-2</v>
       </c>
       <c r="O65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4858325447121441E-2</v>
       </c>
     </row>
@@ -34518,11 +34518,11 @@
         <v>785</v>
       </c>
       <c r="N69">
-        <f t="shared" ref="N69:N71" si="13">AVERAGE(C74:F74)</f>
+        <f t="shared" ref="N69:N71" si="14">AVERAGE(C74:F74)</f>
         <v>6.8340961790304203E-2</v>
       </c>
       <c r="O69">
-        <f t="shared" ref="O69:O71" si="14">_xlfn.STDEV.S(C74:F74)</f>
+        <f t="shared" ref="O69:O71" si="15">_xlfn.STDEV.S(C74:F74)</f>
         <v>8.9716982746573786E-3</v>
       </c>
     </row>
@@ -34558,11 +34558,11 @@
         <v>786</v>
       </c>
       <c r="N70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.3810791202043141E-2</v>
       </c>
       <c r="O70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.391385234616588E-2</v>
       </c>
     </row>
@@ -34572,42 +34572,42 @@
         <v>10276574.279999997</v>
       </c>
       <c r="D71">
-        <f t="shared" ref="D71:J71" si="15">SUM(D67:D70)</f>
+        <f t="shared" ref="D71:J71" si="16">SUM(D67:D70)</f>
         <v>14569889.084999997</v>
       </c>
       <c r="E71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16246048.391999993</v>
       </c>
       <c r="F71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13267701.410999991</v>
       </c>
       <c r="G71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>243730439.08200014</v>
       </c>
       <c r="H71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>694950296.23500001</v>
       </c>
       <c r="I71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>371333954.49599987</v>
       </c>
       <c r="J71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>183527329.44299996</v>
       </c>
       <c r="M71" t="s">
         <v>787</v>
       </c>
       <c r="N71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14317355479264876</v>
       </c>
       <c r="O71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.8032429488659474E-2</v>
       </c>
     </row>
@@ -34617,31 +34617,31 @@
         <v>0.72061835395987617</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73:J73" si="16">D67/D$71</f>
+        <f t="shared" ref="D73:J73" si="17">D67/D$71</f>
         <v>0.67586288849226328</v>
       </c>
       <c r="E73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.77433499793061555</v>
       </c>
       <c r="F73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.80788252847726061</v>
       </c>
       <c r="G73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.71616056774211478</v>
       </c>
       <c r="H73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.7623704033660027</v>
       </c>
       <c r="I73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.82264125455107162</v>
       </c>
       <c r="J73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.71088686837521142</v>
       </c>
       <c r="L73" t="s">
@@ -34656,35 +34656,35 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C74">
-        <f t="shared" ref="C74:J77" si="17">C68/C$71</f>
+        <f t="shared" ref="C74:J77" si="18">C68/C$71</f>
         <v>7.6206843415138545E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.5445149622427654E-2</v>
       </c>
       <c r="E74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.3778344000884959E-2</v>
       </c>
       <c r="F74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.7933510122765632E-2</v>
       </c>
       <c r="G74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.3331612792306198E-2</v>
       </c>
       <c r="H74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.1350662265611293E-2</v>
       </c>
       <c r="I74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.129253320723509E-2</v>
       </c>
       <c r="J74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.4555660455679845E-2</v>
       </c>
       <c r="M74" t="s">
@@ -34701,136 +34701,136 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.6951145493982669E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.416659505064448E-2</v>
       </c>
       <c r="E75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.558688248674028E-2</v>
       </c>
       <c r="F75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.8538541776805149E-2</v>
       </c>
       <c r="G75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.3181355551159234E-2</v>
       </c>
       <c r="H75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.825089092517063E-2</v>
       </c>
       <c r="I75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.4324888916284926E-2</v>
       </c>
       <c r="J75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.3879227776597262E-2</v>
       </c>
       <c r="M75" t="s">
         <v>785</v>
       </c>
       <c r="N75">
-        <f t="shared" ref="N75:N77" si="18">AVERAGE(G74:J74)</f>
+        <f t="shared" ref="N75:N77" si="19">AVERAGE(G74:J74)</f>
         <v>4.263261718020811E-2</v>
       </c>
       <c r="O75">
-        <f t="shared" ref="O75:O77" si="19">_xlfn.STDEV.S(G74:J74)</f>
+        <f t="shared" ref="O75:O77" si="20">_xlfn.STDEV.S(G74:J74)</f>
         <v>1.5943571079223466E-3</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.14622365713100263</v>
       </c>
       <c r="D76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.19452536683466456</v>
       </c>
       <c r="E76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.1262997755817592</v>
       </c>
       <c r="F76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.1056454196231686</v>
       </c>
       <c r="G76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.21732646391441987</v>
       </c>
       <c r="H76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.17802804344321546</v>
       </c>
       <c r="I76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.12174132332540835</v>
       </c>
       <c r="J76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.22067824339251157</v>
       </c>
       <c r="M76" t="s">
         <v>786</v>
       </c>
       <c r="N76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.9909090792303012E-2</v>
       </c>
       <c r="O76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.4871164355145821E-3</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="E77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="F77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="M77" t="s">
         <v>787</v>
       </c>
       <c r="N77">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.18444351851888879</v>
       </c>
       <c r="O77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6068669711929522E-2</v>
       </c>
     </row>
@@ -34947,11 +34947,11 @@
         <v>785</v>
       </c>
       <c r="N81">
-        <f t="shared" ref="N81:N84" si="20">AVERAGE(C87:F87)</f>
+        <f t="shared" ref="N81:N84" si="21">AVERAGE(C87:F87)</f>
         <v>0.18684995708406732</v>
       </c>
       <c r="O81">
-        <f t="shared" ref="O81:O84" si="21">_xlfn.STDEV.S(C87:F87)</f>
+        <f t="shared" ref="O81:O84" si="22">_xlfn.STDEV.S(C87:F87)</f>
         <v>4.4690285277944478E-3</v>
       </c>
     </row>
@@ -34987,11 +34987,11 @@
         <v>786</v>
       </c>
       <c r="N82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.11431439830325646</v>
       </c>
       <c r="O82">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.1591950895475907E-2</v>
       </c>
     </row>
@@ -35027,11 +35027,11 @@
         <v>787</v>
       </c>
       <c r="N83">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.6636859972615021E-2</v>
       </c>
       <c r="O83">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.7581552871445364E-2</v>
       </c>
     </row>
@@ -35041,76 +35041,76 @@
         <v>750658502.97599947</v>
       </c>
       <c r="D84">
-        <f t="shared" ref="D84:J84" si="22">SUM(D79:D83)</f>
+        <f t="shared" ref="D84:J84" si="23">SUM(D79:D83)</f>
         <v>547970290.70700061</v>
       </c>
       <c r="E84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1053957863.2769986</v>
       </c>
       <c r="F84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>675079029.84299862</v>
       </c>
       <c r="G84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>463396028.31900054</v>
       </c>
       <c r="H84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>475438024.99499983</v>
       </c>
       <c r="I84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>430269613.48200077</v>
       </c>
       <c r="J84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>241958914.32900012</v>
       </c>
       <c r="M84" t="s">
         <v>788</v>
       </c>
       <c r="N84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0966716967761679E-2</v>
       </c>
       <c r="O84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.1452128967852751E-3</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C86">
-        <f>C79/C$84</f>
+        <f t="shared" ref="C86:C91" si="24">C79/C$84</f>
         <v>0.60996915377462835</v>
       </c>
       <c r="D86">
-        <f t="shared" ref="D86:J86" si="23">D79/D$84</f>
+        <f t="shared" ref="D86:J86" si="25">D79/D$84</f>
         <v>0.60716872082924722</v>
       </c>
       <c r="E86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.64212505613910997</v>
       </c>
       <c r="F86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.66566533994621258</v>
       </c>
       <c r="G86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.62173704311221645</v>
       </c>
       <c r="H86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.75804705499689518</v>
       </c>
       <c r="I86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.69477637839397632</v>
       </c>
       <c r="J86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.64364658440002864</v>
       </c>
       <c r="L86" t="s">
@@ -35125,35 +35125,35 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C87">
-        <f>C80/C$84</f>
+        <f t="shared" si="24"/>
         <v>0.18159149143796244</v>
       </c>
       <c r="D87">
-        <f>D80/D$84</f>
+        <f t="shared" ref="D87:J91" si="26">D80/D$84</f>
         <v>0.18476702230219402</v>
       </c>
       <c r="E87">
-        <f>E80/E$84</f>
+        <f t="shared" si="26"/>
         <v>0.19122011765002794</v>
       </c>
       <c r="F87">
-        <f>F80/F$84</f>
+        <f t="shared" si="26"/>
         <v>0.18982119694608482</v>
       </c>
       <c r="G87">
-        <f>G80/G$84</f>
+        <f t="shared" si="26"/>
         <v>0.19030306594534149</v>
       </c>
       <c r="H87">
-        <f>H80/H$84</f>
+        <f t="shared" si="26"/>
         <v>0.13648528958886366</v>
       </c>
       <c r="I87">
-        <f>I80/I$84</f>
+        <f t="shared" si="26"/>
         <v>0.17994369190851303</v>
       </c>
       <c r="J87">
-        <f>J80/J$84</f>
+        <f t="shared" si="26"/>
         <v>0.17511861471814166</v>
       </c>
       <c r="M87" t="s">
@@ -35170,181 +35170,181 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C88">
-        <f>C81/C$84</f>
+        <f t="shared" si="24"/>
         <v>0.12129994647767446</v>
       </c>
       <c r="D88">
-        <f>D81/D$84</f>
+        <f t="shared" si="26"/>
         <v>0.12249919832586736</v>
       </c>
       <c r="E88">
-        <f>E81/E$84</f>
+        <f t="shared" si="26"/>
         <v>0.11600988715984868</v>
       </c>
       <c r="F88">
-        <f>F81/F$84</f>
+        <f t="shared" si="26"/>
         <v>9.7448561249635329E-2</v>
       </c>
       <c r="G88">
-        <f>G81/G$84</f>
+        <f t="shared" si="26"/>
         <v>0.13603079953591268</v>
       </c>
       <c r="H88">
-        <f>H81/H$84</f>
+        <f t="shared" si="26"/>
         <v>7.4673405976253923E-2</v>
       </c>
       <c r="I88">
-        <f>I81/I$84</f>
+        <f t="shared" si="26"/>
         <v>9.1481777096598688E-2</v>
       </c>
       <c r="J88">
-        <f>J81/J$84</f>
+        <f t="shared" si="26"/>
         <v>0.1129897505318873</v>
       </c>
       <c r="M88" t="s">
         <v>785</v>
       </c>
       <c r="N88">
-        <f t="shared" ref="N88:N90" si="24">AVERAGE(G87:J87)</f>
+        <f t="shared" ref="N88:N90" si="27">AVERAGE(G87:J87)</f>
         <v>0.17046266554021494</v>
       </c>
       <c r="O88">
-        <f t="shared" ref="O88:O90" si="25">_xlfn.STDEV.S(G87:J87)</f>
+        <f t="shared" ref="O88:O90" si="28">_xlfn.STDEV.S(G87:J87)</f>
         <v>2.3520709233347464E-2</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C89">
-        <f>C82/C$84</f>
+        <f t="shared" si="24"/>
         <v>7.2849197379635092E-2</v>
       </c>
       <c r="D89">
-        <f>D82/D$84</f>
+        <f t="shared" si="26"/>
         <v>7.0789555039474455E-2</v>
       </c>
       <c r="E89">
-        <f>E82/E$84</f>
+        <f t="shared" si="26"/>
         <v>4.2714649986123829E-2</v>
       </c>
       <c r="F89">
-        <f>F82/F$84</f>
+        <f t="shared" si="26"/>
         <v>4.019403748522668E-2</v>
       </c>
       <c r="G89">
-        <f>G82/G$84</f>
+        <f t="shared" si="26"/>
         <v>4.5377159388437158E-2</v>
       </c>
       <c r="H89">
-        <f>H82/H$84</f>
+        <f t="shared" si="26"/>
         <v>2.6008457453797561E-2</v>
       </c>
       <c r="I89">
-        <f>I82/I$84</f>
+        <f t="shared" si="26"/>
         <v>2.936230779292184E-2</v>
       </c>
       <c r="J89">
-        <f>J82/J$84</f>
+        <f t="shared" si="26"/>
         <v>5.5866732290011219E-2</v>
       </c>
       <c r="M89" t="s">
         <v>786</v>
       </c>
       <c r="N89">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.10379393328516315</v>
       </c>
       <c r="O89">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>2.6604341132381602E-2</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C90">
-        <f>C83/C$84</f>
+        <f t="shared" si="24"/>
         <v>1.4290210930099826E-2</v>
       </c>
       <c r="D90">
-        <f>D83/D$84</f>
+        <f t="shared" si="26"/>
         <v>1.4775503503216788E-2</v>
       </c>
       <c r="E90">
-        <f>E83/E$84</f>
+        <f t="shared" si="26"/>
         <v>7.9302890648895955E-3</v>
       </c>
       <c r="F90">
-        <f>F83/F$84</f>
+        <f t="shared" si="26"/>
         <v>6.8708643728405041E-3</v>
       </c>
       <c r="G90">
-        <f>G83/G$84</f>
+        <f t="shared" si="26"/>
         <v>6.55193201809217E-3</v>
       </c>
       <c r="H90">
-        <f>H83/H$84</f>
+        <f t="shared" si="26"/>
         <v>4.785791984189592E-3</v>
       </c>
       <c r="I90">
-        <f>I83/I$84</f>
+        <f t="shared" si="26"/>
         <v>4.435844807990013E-3</v>
       </c>
       <c r="J90">
-        <f>J83/J$84</f>
+        <f t="shared" si="26"/>
         <v>1.2378318059931177E-2</v>
       </c>
       <c r="M90" t="s">
         <v>787</v>
       </c>
       <c r="N90">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>3.9153664231291942E-2</v>
       </c>
       <c r="O90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.3984821033686116E-2</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C91">
-        <f>C84/C$84</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="D91">
-        <f>D84/D$84</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="E91">
-        <f>E84/E$84</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="F91">
-        <f>F84/F$84</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="G91">
-        <f>G84/G$84</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="H91">
-        <f>H84/H$84</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I91">
-        <f>I84/I$84</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="J91">
-        <f>J84/J$84</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="M91" t="s">
         <v>788</v>
       </c>
       <c r="N91">
-        <f t="shared" ref="N91" si="26">AVERAGE(G90:J90)</f>
+        <f t="shared" ref="N91" si="29">AVERAGE(G90:J90)</f>
         <v>7.0379717175507381E-3</v>
       </c>
       <c r="O91">
-        <f t="shared" ref="O91" si="27">_xlfn.STDEV.S(G90:J90)</f>
+        <f t="shared" ref="O91" si="30">_xlfn.STDEV.S(G90:J90)</f>
         <v>3.6787186016713582E-3</v>
       </c>
     </row>
